--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -1900,9 +1900,6 @@
     <t>User :  admin</t>
   </si>
   <si>
-    <t>Pass:    HP#Oh^RCs@&amp;FU3iXOUpZgxwV</t>
-  </si>
-  <si>
     <t>restaurant1.hirewebagency.com</t>
   </si>
   <si>
@@ -1961,6 +1958,9 @@
   </si>
   <si>
     <t>pzc9gukRPYIIaNxw</t>
+  </si>
+  <si>
+    <t>Pass:    j$u%B&amp;s2QpFdlCVJ2qqw%@&amp;f</t>
   </si>
 </sst>
 </file>
@@ -2583,9 +2583,9 @@
   <dimension ref="A1:O273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="B269" sqref="B269"/>
+      <selection pane="bottomLeft" activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4168,7 +4168,7 @@
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="47" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -4183,7 +4183,7 @@
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="1:1">
@@ -4392,7 +4392,7 @@
       </c>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" t="s">
+      <c r="A241" s="4" t="s">
         <v>617</v>
       </c>
     </row>
@@ -4403,17 +4403,17 @@
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="47" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="246" spans="1:1">
@@ -4423,52 +4423,52 @@
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="47" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="B260" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B262" s="4" t="s">
         <v>327</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="B263" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4486,27 +4486,27 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="47" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -4630,9 +4630,10 @@
     <hyperlink ref="A262" r:id="rId117" location="/hosting/all"/>
     <hyperlink ref="A191" r:id="rId118"/>
     <hyperlink ref="B262" r:id="rId119"/>
+    <hyperlink ref="A241" r:id="rId120"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId120"/>
+  <pageSetup orientation="portrait" r:id="rId121"/>
 </worksheet>
 </file>
 
